--- a/public/download/question_bulk_demo.xlsx
+++ b/public/download/question_bulk_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587B6064-0B7D-482C-BAB3-BFEA2DC320A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62336674-8346-4E38-9625-BA83755BF8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4FE681D9-AC93-4777-9415-2108522B2E1E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>name</t>
   </si>
@@ -72,9 +72,6 @@
     <t>answer_3</t>
   </si>
   <si>
-    <t>correct_answer</t>
-  </si>
-  <si>
     <t>أى من الأسئلة الآتية مرتبط بمفهوم المناخ ؟</t>
   </si>
   <si>
@@ -106,13 +103,91 @@
   </si>
   <si>
     <t>متوسط الحل</t>
+  </si>
+  <si>
+    <t>correct_answers</t>
+  </si>
+  <si>
+    <t>answer_view_format_1</t>
+  </si>
+  <si>
+    <t>answer_photo_1</t>
+  </si>
+  <si>
+    <t>answer_photo_2</t>
+  </si>
+  <si>
+    <t>answer_view_format_2</t>
+  </si>
+  <si>
+    <t>answer_photo_3</t>
+  </si>
+  <si>
+    <t>answer_view_format_3</t>
+  </si>
+  <si>
+    <t>answer_photo_4</t>
+  </si>
+  <si>
+    <t>answer_view_format_4</t>
+  </si>
+  <si>
+    <t>https://w7.pngwing.com/pngs/723/139/png-transparent-tropical-climate-papalotla-de-xicohtencatl-clima-hand-logo-forest-thumbnail.png</t>
+  </si>
+  <si>
+    <t>text_image</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>https://w7.pngwing.com/pngs/283/337/png-transparent-weather-forecasting-cloudburst-meteorology-climate-weather-blue-text-weather-forecasting.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">يُعد لفظ "مائة" في قوله تعالى: (فَاجلِدوا كُلًَ وَاحِدٍ منِهُمَا مِائَةَ جَلدَةٍ):	</t>
+  </si>
+  <si>
+    <t>multiple_choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قطعي الثبوت وظني الدلالة	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ظني الثبوت والدلالة	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ظني الثبوت وقطعي الدلالة	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قطعي الثبوت والدلالة	</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>هل هذا علم فلسطين؟</t>
+  </si>
+  <si>
+    <t>true_false</t>
+  </si>
+  <si>
+    <t>https://quizzy.makank.online/images/questions/vZQVIkoIo5BbUJHTqIIrRs0uRPhadpHelfZjwsyt.png</t>
+  </si>
+  <si>
+    <t>اجابة خاطئة</t>
+  </si>
+  <si>
+    <t>صحيح</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,16 +210,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF22252F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -152,12 +240,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFEAE8F1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFEAE8F1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFEAE8F1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -166,6 +267,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C45238-E28B-49A4-8E30-28A9D0AF0282}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -493,14 +598,16 @@
     <col min="2" max="2" width="30.125" customWidth="1"/>
     <col min="4" max="4" width="16.125" customWidth="1"/>
     <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="14.375" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
-    <col min="12" max="12" width="14.75" customWidth="1"/>
-    <col min="13" max="13" width="19.25" customWidth="1"/>
+    <col min="9" max="9" width="19.5" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="11" max="13" width="34.125" customWidth="1"/>
+    <col min="14" max="16" width="34.25" customWidth="1"/>
+    <col min="17" max="19" width="27.5" customWidth="1"/>
+    <col min="20" max="20" width="35" customWidth="1"/>
+    <col min="21" max="21" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -529,28 +636,52 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
       </c>
       <c r="E2">
         <v>34</v>
@@ -562,36 +693,54 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
       </c>
       <c r="E3">
         <v>34</v>
@@ -603,19 +752,125 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="Q3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" t="s">
+      <c r="S3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>34</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
         <v>20</v>
       </c>
-      <c r="M3">
-        <v>1</v>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>34</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/public/download/question_bulk_demo.xlsx
+++ b/public/download/question_bulk_demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62336674-8346-4E38-9625-BA83755BF8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7F6EB8-6542-4E37-B1B6-158FC0ABB743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4FE681D9-AC93-4777-9415-2108522B2E1E}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>answer_3</t>
   </si>
   <si>
-    <t>أى من الأسئلة الآتية مرتبط بمفهوم المناخ ؟</t>
-  </si>
-  <si>
     <t>single_choice</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>ماطر طوال الأسبوع</t>
   </si>
   <si>
-    <t>أى من الأسئلة الآتية مرتبط بمفهوم المناخ2 ؟</t>
-  </si>
-  <si>
     <t>medium</t>
   </si>
   <si>
@@ -132,9 +126,6 @@
     <t>answer_view_format_4</t>
   </si>
   <si>
-    <t>https://w7.pngwing.com/pngs/723/139/png-transparent-tropical-climate-papalotla-de-xicohtencatl-clima-hand-logo-forest-thumbnail.png</t>
-  </si>
-  <si>
     <t>text_image</t>
   </si>
   <si>
@@ -144,12 +135,6 @@
     <t>image</t>
   </si>
   <si>
-    <t>https://w7.pngwing.com/pngs/283/337/png-transparent-weather-forecasting-cloudburst-meteorology-climate-weather-blue-text-weather-forecasting.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">يُعد لفظ "مائة" في قوله تعالى: (فَاجلِدوا كُلًَ وَاحِدٍ منِهُمَا مِائَةَ جَلدَةٍ):	</t>
-  </si>
-  <si>
     <t>multiple_choice</t>
   </si>
   <si>
@@ -168,9 +153,6 @@
     <t>1,4</t>
   </si>
   <si>
-    <t>هل هذا علم فلسطين؟</t>
-  </si>
-  <si>
     <t>true_false</t>
   </si>
   <si>
@@ -181,6 +163,24 @@
   </si>
   <si>
     <t>صحيح</t>
+  </si>
+  <si>
+    <t>أى من الأسئلة الآتية مرتبط بمفهوم المناخ 2025؟</t>
+  </si>
+  <si>
+    <t>أى من الأسئلة الآتية مرتبط بمفهوم المناخ2025 ؟</t>
+  </si>
+  <si>
+    <t>يُعد لفظ "مائة" في قوله تعالى: (فَاجلِدوا كُلًَ وَاحِدٍ منِهُمَا مِائَةَ جَلدَةٍ):	 2025</t>
+  </si>
+  <si>
+    <t>هل هذا علم فلسطين؟ 2025</t>
+  </si>
+  <si>
+    <t>https://gate.ahram.org.eg/Media/News/2019/9/16/19_2019-637042200213727190-372.jpg</t>
+  </si>
+  <si>
+    <t>https://factjo.com/AllNewImages/large/2024_03_04_09_32_26.jpg</t>
   </si>
 </sst>
 </file>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C45238-E28B-49A4-8E30-28A9D0AF0282}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -636,52 +636,52 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L1" t="s">
         <v>9</v>
       </c>
       <c r="M1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O1" t="s">
         <v>11</v>
       </c>
       <c r="P1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R1" t="s">
         <v>10</v>
       </c>
       <c r="S1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
       </c>
       <c r="E2">
         <v>34</v>
@@ -693,37 +693,37 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" t="s">
         <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
-        <v>35</v>
       </c>
       <c r="U2">
         <v>1</v>
@@ -731,16 +731,16 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
       </c>
       <c r="E3">
         <v>34</v>
@@ -752,31 +752,31 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" t="s">
-        <v>19</v>
-      </c>
       <c r="S3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="T3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="U3">
         <v>2</v>
@@ -784,13 +784,13 @@
     </row>
     <row r="4" spans="1:26" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>34</v>
@@ -802,42 +802,42 @@
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="U4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>34</v>
@@ -849,25 +849,25 @@
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="T5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="U5">
         <v>2</v>

--- a/public/download/question_bulk_demo.xlsx
+++ b/public/download/question_bulk_demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\quizzy\public\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7F6EB8-6542-4E37-B1B6-158FC0ABB743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AA2C8C-C87A-404C-8C2E-9CEF5B7C7F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4FE681D9-AC93-4777-9415-2108522B2E1E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>name</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>https://factjo.com/AllNewImages/large/2024_03_04_09_32_26.jpg</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>reference</t>
   </si>
 </sst>
 </file>
@@ -258,9 +264,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -586,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C45238-E28B-49A4-8E30-28A9D0AF0282}">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -598,16 +603,24 @@
     <col min="2" max="2" width="30.125" customWidth="1"/>
     <col min="4" max="4" width="16.125" customWidth="1"/>
     <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="19.5" customWidth="1"/>
-    <col min="10" max="10" width="14.375" customWidth="1"/>
-    <col min="11" max="13" width="34.125" customWidth="1"/>
-    <col min="14" max="16" width="34.25" customWidth="1"/>
-    <col min="17" max="19" width="27.5" customWidth="1"/>
-    <col min="20" max="20" width="35" customWidth="1"/>
-    <col min="21" max="21" width="19.25" customWidth="1"/>
+    <col min="9" max="9" width="20.125" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="19.5" customWidth="1"/>
+    <col min="12" max="12" width="34.125" customWidth="1"/>
+    <col min="13" max="13" width="34.25" customWidth="1"/>
+    <col min="14" max="14" width="27.5" customWidth="1"/>
+    <col min="15" max="15" width="19.25" customWidth="1"/>
+    <col min="16" max="16" width="14.375" customWidth="1"/>
+    <col min="17" max="17" width="34.125" customWidth="1"/>
+    <col min="18" max="18" width="34.25" customWidth="1"/>
+    <col min="19" max="19" width="27.5" customWidth="1"/>
+    <col min="20" max="20" width="34.125" customWidth="1"/>
+    <col min="21" max="21" width="34.25" customWidth="1"/>
+    <col min="22" max="22" width="27.5" customWidth="1"/>
+    <col min="23" max="23" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -633,48 +646,53 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
       </c>
       <c r="L1" t="s">
         <v>9</v>
       </c>
       <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>26</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" t="s">
-        <v>10</v>
       </c>
       <c r="S1" t="s">
         <v>28</v>
       </c>
       <c r="T1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" t="s">
         <v>29</v>
       </c>
-      <c r="U1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B2" t="s">
@@ -695,42 +713,42 @@
       <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
       </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
       <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" t="s">
         <v>18</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>47</v>
       </c>
       <c r="S2" t="s">
         <v>48</v>
       </c>
       <c r="T2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" t="s">
         <v>32</v>
       </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B3" t="s">
@@ -751,39 +769,39 @@
       <c r="G3">
         <v>15</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
       </c>
       <c r="L3" t="s">
         <v>15</v>
       </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
       <c r="N3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" t="s">
         <v>18</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
       </c>
       <c r="S3" t="s">
         <v>48</v>
       </c>
       <c r="T3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" t="s">
         <v>32</v>
       </c>
-      <c r="U3">
-        <v>2</v>
-      </c>
     </row>
-    <row r="4" spans="1:26" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:23" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B4" t="s">
@@ -801,36 +819,36 @@
       <c r="G4">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>34</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
       </c>
       <c r="L4" t="s">
         <v>35</v>
       </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
       <c r="N4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s">
         <v>31</v>
       </c>
       <c r="U4" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="V4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B5" t="s">
@@ -851,26 +869,26 @@
       <c r="H5" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>31</v>
+      <c r="O5">
+        <v>2</v>
       </c>
       <c r="T5" t="s">
         <v>31</v>
       </c>
-      <c r="U5">
-        <v>2</v>
+      <c r="U5" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/public/download/question_bulk_demo.xlsx
+++ b/public/download/question_bulk_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\quizzy\public\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AA2C8C-C87A-404C-8C2E-9CEF5B7C7F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8695047-A379-4CEB-98B9-95FA9A72E0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4FE681D9-AC93-4777-9415-2108522B2E1E}"/>
   </bookViews>
@@ -594,7 +594,7 @@
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
